--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -88,10 +88,10 @@
     <t>safe</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>positive</t>
   </si>
   <si>
     <t>well</t>
@@ -565,7 +565,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1009,25 +1009,25 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6566523605150214</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L16">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="N16">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O16">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1035,25 +1035,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6491228070175439</v>
+        <v>0.6401673640167364</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1165,25 +1165,25 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.524390243902439</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="L22">
         <v>172</v>
       </c>
       <c r="M22">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="N22">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="10:17">
